--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,6 +879,9 @@
     <t>Bundle.entry:messageheader.fullUrl</t>
   </si>
   <si>
+    <t>Uri de identificación dentro del Bundle</t>
+  </si>
+  <si>
     <t>Bundle.entry:messageheader.resource</t>
   </si>
   <si>
@@ -1126,7 +1129,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que revisa la interconsulta</t>
+    <t>Profesional que agenda la interconsulta</t>
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
@@ -1353,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t>Se indica el administrativo y organización que agenda la interconsulta</t>
+    <t>Se indica el administrativo y organización que agenda la interconsulta, o el profesional que realizará la atención</t>
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
@@ -8084,7 +8087,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -8096,7 +8099,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>190</v>
@@ -8181,7 +8184,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>192</v>
@@ -8207,13 +8210,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8279,10 +8282,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -8405,7 +8408,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -8517,7 +8520,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8747,7 +8750,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8861,7 +8864,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -9087,7 +9090,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9767,7 +9770,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9879,7 +9882,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -10103,7 +10106,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -10215,7 +10218,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -10441,7 +10444,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -10557,7 +10560,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10669,7 +10672,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10781,7 +10784,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10895,7 +10898,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -11009,7 +11012,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -11123,13 +11126,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11154,7 +11157,7 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -11237,7 +11240,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -11349,7 +11352,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -11463,7 +11466,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11691,7 +11694,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -11702,13 +11705,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11720,7 +11723,7 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>190</v>
@@ -11805,14 +11808,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11831,13 +11834,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11903,10 +11906,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11917,7 +11920,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -12029,7 +12032,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -12141,7 +12144,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -12255,7 +12258,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -12371,7 +12374,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -12485,7 +12488,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12711,7 +12714,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12823,7 +12826,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12937,7 +12940,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -13053,7 +13056,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -13165,7 +13168,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -13279,7 +13282,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -13391,7 +13394,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -13503,7 +13506,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13615,7 +13618,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13727,7 +13730,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13839,7 +13842,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13951,7 +13954,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -14065,7 +14068,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -14181,7 +14184,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -14293,7 +14296,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -14405,7 +14408,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -14519,7 +14522,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14633,7 +14636,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14747,13 +14750,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14778,7 +14781,7 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -14861,7 +14864,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -14973,7 +14976,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -15087,7 +15090,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -15203,7 +15206,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -15326,13 +15329,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>77</v>
@@ -15344,7 +15347,7 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>190</v>
@@ -15429,7 +15432,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -15455,13 +15458,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15527,10 +15530,10 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15541,7 +15544,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -15653,7 +15656,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -15765,7 +15768,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -15879,7 +15882,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -15995,7 +15998,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -16109,7 +16112,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -16223,7 +16226,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -16335,7 +16338,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -16447,7 +16450,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -16561,7 +16564,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -16677,7 +16680,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -16789,7 +16792,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -16903,7 +16906,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -17015,7 +17018,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -17127,7 +17130,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -17239,7 +17242,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -17351,7 +17354,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -17463,7 +17466,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -17575,7 +17578,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -17689,7 +17692,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -17805,7 +17808,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -17917,7 +17920,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -18029,7 +18032,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -18143,7 +18146,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -18257,7 +18260,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -18371,13 +18374,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18402,7 +18405,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18485,7 +18488,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18597,7 +18600,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18711,7 +18714,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18827,7 +18830,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18939,7 +18942,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18950,13 +18953,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
@@ -18968,7 +18971,7 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>190</v>
@@ -19053,7 +19056,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -19079,13 +19082,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19151,10 +19154,10 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -19165,7 +19168,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19277,7 +19280,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19389,7 +19392,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19503,7 +19506,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19619,7 +19622,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19733,7 +19736,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19847,7 +19850,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19959,7 +19962,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -20071,7 +20074,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -20185,7 +20188,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20301,7 +20304,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20413,7 +20416,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20527,7 +20530,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20639,7 +20642,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20751,7 +20754,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20863,7 +20866,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20975,7 +20978,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -21087,7 +21090,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -21199,7 +21202,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21313,7 +21316,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21429,7 +21432,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21541,7 +21544,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21653,7 +21656,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21767,7 +21770,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21881,7 +21884,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21995,23 +21998,23 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -22026,7 +22029,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -22109,7 +22112,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22221,7 +22224,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22335,7 +22338,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22451,7 +22454,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22563,7 +22566,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22574,13 +22577,13 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>77</v>
@@ -22592,7 +22595,7 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>190</v>
@@ -22677,7 +22680,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22703,13 +22706,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22775,10 +22778,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22789,7 +22792,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22901,7 +22904,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -23013,7 +23016,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -23127,7 +23130,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23243,7 +23246,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23357,7 +23360,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23471,7 +23474,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23583,7 +23586,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23695,7 +23698,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23809,7 +23812,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23925,7 +23928,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -24037,7 +24040,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -24151,7 +24154,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24263,7 +24266,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24375,7 +24378,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24487,7 +24490,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24599,7 +24602,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24711,7 +24714,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24823,7 +24826,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24937,7 +24940,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -25053,7 +25056,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -25165,7 +25168,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25277,7 +25280,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25391,7 +25394,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25505,7 +25508,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25619,13 +25622,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25650,7 +25653,7 @@
         <v>145</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>178</v>
@@ -25733,7 +25736,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>182</v>
@@ -25845,7 +25848,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>183</v>
@@ -25959,7 +25962,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>184</v>
@@ -26075,7 +26078,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>185</v>
@@ -26187,7 +26190,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>188</v>
@@ -26198,13 +26201,13 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>77</v>
@@ -26216,7 +26219,7 @@
         <v>101</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>190</v>
@@ -26301,7 +26304,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>192</v>
@@ -26327,13 +26330,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26399,10 +26402,10 @@
         <v>77</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -26413,7 +26416,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>196</v>
@@ -26525,7 +26528,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>200</v>
@@ -26637,7 +26640,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>201</v>
@@ -26751,7 +26754,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>202</v>
@@ -26867,7 +26870,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>203</v>
@@ -26981,7 +26984,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>209</v>
@@ -27095,7 +27098,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>214</v>
@@ -27207,7 +27210,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>218</v>
@@ -27319,7 +27322,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>219</v>
@@ -27433,7 +27436,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>220</v>
@@ -27549,7 +27552,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>221</v>
@@ -27661,7 +27664,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>226</v>
@@ -27775,7 +27778,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>230</v>
@@ -27887,7 +27890,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>233</v>
@@ -27999,7 +28002,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>235</v>
@@ -28111,7 +28114,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>238</v>
@@ -28223,7 +28226,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>241</v>
@@ -28335,7 +28338,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>245</v>
@@ -28447,7 +28450,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>246</v>
@@ -28561,7 +28564,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>247</v>
@@ -28677,7 +28680,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>248</v>
@@ -28789,7 +28792,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>251</v>
@@ -28901,7 +28904,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>254</v>
@@ -29015,7 +29018,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>258</v>
@@ -29129,7 +29132,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>262</v>
@@ -29243,13 +29246,13 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -29274,7 +29277,7 @@
         <v>145</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>178</v>
@@ -29357,7 +29360,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>182</v>
@@ -29469,7 +29472,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>183</v>
@@ -29583,7 +29586,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>184</v>
@@ -29699,7 +29702,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>185</v>
@@ -29811,7 +29814,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>188</v>
@@ -29822,13 +29825,13 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H246" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I246" t="s" s="2">
         <v>77</v>
@@ -29840,7 +29843,7 @@
         <v>101</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>190</v>
@@ -29925,7 +29928,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>192</v>
@@ -29951,13 +29954,13 @@
         <v>77</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -30026,7 +30029,7 @@
         <v>77</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>77</v>
@@ -30037,7 +30040,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>196</v>
@@ -30149,7 +30152,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>200</v>
@@ -30261,7 +30264,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>201</v>
@@ -30375,7 +30378,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>202</v>
@@ -30491,7 +30494,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>203</v>
@@ -30605,7 +30608,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>209</v>
@@ -30719,7 +30722,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>214</v>
@@ -30831,7 +30834,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>218</v>
@@ -30943,7 +30946,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>219</v>
@@ -31057,7 +31060,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>220</v>
@@ -31173,7 +31176,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>221</v>
@@ -31285,7 +31288,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>226</v>
@@ -31399,7 +31402,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>230</v>
@@ -31511,7 +31514,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>233</v>
@@ -31623,7 +31626,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>235</v>
@@ -31735,7 +31738,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>238</v>
@@ -31847,7 +31850,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>241</v>
@@ -31959,7 +31962,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>245</v>
@@ -32071,7 +32074,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>246</v>
@@ -32185,7 +32188,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>247</v>
@@ -32301,7 +32304,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>248</v>
@@ -32413,7 +32416,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>251</v>
@@ -32525,7 +32528,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>254</v>
@@ -32639,7 +32642,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>258</v>
@@ -32753,7 +32756,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>262</v>
@@ -32867,10 +32870,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -32893,19 +32896,19 @@
         <v>88</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O273" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>77</v>
@@ -32954,7 +32957,7 @@
         <v>77</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -2015,17 +2015,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.3671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2034,26 +2034,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7521,7 +7521,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -11145,7 +11145,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -14769,7 +14769,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -18393,7 +18393,7 @@
         <v>87</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -22017,7 +22017,7 @@
         <v>422</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
@@ -25641,7 +25641,7 @@
         <v>87</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>77</v>
@@ -29265,7 +29265,7 @@
         <v>87</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>77</v>
